--- a/static/tmp/fb_comments_20251109-181402.xlsx
+++ b/static/tmp/fb_comments_20251109-181402.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNITEL_Website\data\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8471E-2BD9-4093-A8E8-59FB43D36337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A642DD7-E297-4FFD-88C1-BAD0DFC61D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -382,6 +382,18 @@
   </si>
   <si>
     <t>29277766021870489</t>
+  </si>
+  <si>
+    <t>сөрөг</t>
+  </si>
+  <si>
+    <t>саармаг</t>
+  </si>
+  <si>
+    <t>эерэг</t>
+  </si>
+  <si>
+    <t>саарм+I2:I36аг</t>
   </si>
 </sst>
 </file>
@@ -749,18 +761,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="44.26953125" customWidth="1"/>
     <col min="6" max="6" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -805,8 +819,11 @@
       <c r="G2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -828,8 +845,11 @@
       <c r="G3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -851,8 +871,11 @@
       <c r="G4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -874,8 +897,11 @@
       <c r="G5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -897,8 +923,11 @@
       <c r="G6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -920,8 +949,11 @@
       <c r="G7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -943,8 +975,11 @@
       <c r="G8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -966,8 +1001,11 @@
       <c r="G9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -989,8 +1027,11 @@
       <c r="G10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1012,8 +1053,11 @@
       <c r="G11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1035,8 +1079,11 @@
       <c r="G12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1058,8 +1105,11 @@
       <c r="G13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1081,8 +1131,11 @@
       <c r="G14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1104,8 +1157,11 @@
       <c r="G15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1127,8 +1183,11 @@
       <c r="G16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1150,8 +1209,11 @@
       <c r="G17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1173,8 +1235,11 @@
       <c r="G18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1196,8 +1261,11 @@
       <c r="G19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1287,11 @@
       <c r="G20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1242,8 +1313,11 @@
       <c r="G21" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1265,8 +1339,11 @@
       <c r="G22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1288,8 +1365,11 @@
       <c r="G23" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1311,8 +1391,11 @@
       <c r="G24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1334,8 +1417,11 @@
       <c r="G25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1357,8 +1443,11 @@
       <c r="G26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1380,8 +1469,11 @@
       <c r="G27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1403,8 +1495,11 @@
       <c r="G28" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1426,8 +1521,11 @@
       <c r="G29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1449,8 +1547,11 @@
       <c r="G30" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1472,8 +1573,11 @@
       <c r="G31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1495,8 +1599,11 @@
       <c r="G32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1518,8 +1625,11 @@
       <c r="G33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1541,8 +1651,11 @@
       <c r="G34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1564,8 +1677,11 @@
       <c r="G35" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1586,6 +1702,9 @@
       </c>
       <c r="G36" t="s">
         <v>118</v>
+      </c>
+      <c r="I36" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
